--- a/public/mockData.xlsx
+++ b/public/mockData.xlsx
@@ -41,15 +41,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>start_date</t>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
   </si>
   <si>
     <t>2024-11-01</t>
@@ -368,9 +368,6 @@
   </si>
   <si>
     <t>amount</t>
-  </si>
-  <si>
-    <t>period_id</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1140,7 @@
         <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -1156,8 +1153,8 @@
       <c r="C2" s="1">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -1170,8 +1167,8 @@
       <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
@@ -1184,8 +1181,8 @@
       <c r="C4" s="1">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
-        <v>8</v>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
@@ -1198,8 +1195,8 @@
       <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="1">
-        <v>21</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
@@ -1212,8 +1209,8 @@
       <c r="C6" s="1">
         <v>80</v>
       </c>
-      <c r="D6" s="1">
-        <v>28</v>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
@@ -1226,8 +1223,8 @@
       <c r="C7" s="1">
         <v>80</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
@@ -1240,8 +1237,8 @@
       <c r="C8" s="1">
         <v>114</v>
       </c>
-      <c r="D8" s="1">
-        <v>8</v>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
@@ -1254,8 +1251,8 @@
       <c r="C9" s="1">
         <v>66</v>
       </c>
-      <c r="D9" s="1">
-        <v>19</v>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
@@ -1268,8 +1265,8 @@
       <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="D10" s="1">
-        <v>24</v>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
@@ -1282,8 +1279,8 @@
       <c r="C11" s="1">
         <v>50</v>
       </c>
-      <c r="D11" s="1">
-        <v>25</v>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
@@ -1296,8 +1293,8 @@
       <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
-        <v>29</v>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
@@ -1310,8 +1307,8 @@
       <c r="C13" s="1">
         <v>18</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
@@ -1324,8 +1321,8 @@
       <c r="C14" s="1">
         <v>255</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
@@ -1338,8 +1335,8 @@
       <c r="C15" s="1">
         <v>40</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
@@ -1352,8 +1349,8 @@
       <c r="C16" s="1">
         <v>32</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
@@ -1366,8 +1363,8 @@
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
@@ -1380,8 +1377,8 @@
       <c r="C18" s="1">
         <v>30</v>
       </c>
-      <c r="D18" s="1">
-        <v>8</v>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
@@ -1394,8 +1391,8 @@
       <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
-        <v>9</v>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
@@ -1408,8 +1405,8 @@
       <c r="C20" s="1">
         <v>125</v>
       </c>
-      <c r="D20" s="1">
-        <v>15</v>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
@@ -1422,8 +1419,8 @@
       <c r="C21" s="1">
         <v>29</v>
       </c>
-      <c r="D21" s="1">
-        <v>18</v>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
@@ -1436,8 +1433,8 @@
       <c r="C22" s="1">
         <v>443</v>
       </c>
-      <c r="D22" s="1">
-        <v>19</v>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
@@ -1450,8 +1447,8 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="1">
-        <v>24</v>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
@@ -1464,8 +1461,8 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
-        <v>26</v>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
@@ -1478,8 +1475,8 @@
       <c r="C25" s="1">
         <v>80</v>
       </c>
-      <c r="D25" s="1">
-        <v>28</v>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
@@ -1492,8 +1489,8 @@
       <c r="C26" s="1">
         <v>90</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
@@ -1506,8 +1503,8 @@
       <c r="C27" s="1">
         <v>888</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
@@ -1520,8 +1517,8 @@
       <c r="C28" s="1">
         <v>1584</v>
       </c>
-      <c r="D28" s="1">
-        <v>9</v>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
@@ -1534,8 +1531,8 @@
       <c r="C29" s="1">
         <v>155</v>
       </c>
-      <c r="D29" s="1">
-        <v>13</v>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
@@ -1548,8 +1545,8 @@
       <c r="C30" s="1">
         <v>110</v>
       </c>
-      <c r="D30" s="1">
-        <v>17</v>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
@@ -1562,8 +1559,8 @@
       <c r="C31" s="1">
         <v>2162</v>
       </c>
-      <c r="D31" s="1">
-        <v>21</v>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
@@ -1576,8 +1573,8 @@
       <c r="C32" s="1">
         <v>22</v>
       </c>
-      <c r="D32" s="1">
-        <v>25</v>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
@@ -1590,8 +1587,8 @@
       <c r="C33" s="1">
         <v>1515</v>
       </c>
-      <c r="D33" s="1">
-        <v>26</v>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
@@ -1604,8 +1601,8 @@
       <c r="C34" s="1">
         <v>200</v>
       </c>
-      <c r="D34" s="1">
-        <v>27</v>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1">
@@ -1618,8 +1615,8 @@
       <c r="C35" s="1">
         <v>51</v>
       </c>
-      <c r="D35" s="1">
-        <v>29</v>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
@@ -1632,8 +1629,8 @@
       <c r="C36" s="1">
         <v>515</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
@@ -1646,8 +1643,8 @@
       <c r="C37" s="1">
         <v>215</v>
       </c>
-      <c r="D37" s="1">
-        <v>9</v>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
@@ -1660,638 +1657,638 @@
       <c r="C38" s="1">
         <v>1515</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>555</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>9</v>
+      </c>
+      <c r="C40" s="1">
+        <v>746</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>770</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>9</v>
+      </c>
+      <c r="C42" s="1">
+        <v>793</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1">
+        <v>816</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>9</v>
+      </c>
+      <c r="C44" s="1">
+        <v>839</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" customHeight="1">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>10</v>
+      </c>
+      <c r="C45" s="1">
+        <v>862</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>10</v>
+      </c>
+      <c r="C46" s="1">
+        <v>885</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>10</v>
+      </c>
+      <c r="C47" s="1">
+        <v>908</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>10</v>
+      </c>
+      <c r="C48" s="1">
+        <v>931</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>10</v>
+      </c>
+      <c r="C49" s="1">
+        <v>955</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>10</v>
+      </c>
+      <c r="C50" s="1">
+        <v>978</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1001</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>11</v>
+      </c>
+      <c r="C53" s="1">
+        <v>1047</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1070</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>12</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1093</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>12</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1116</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>12</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1140</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1163</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1186</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>13</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1209</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1232</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" customHeight="1">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1255</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1278</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>14</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1301</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>14</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1325</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1348</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1">
+        <v>1371</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>15</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1394</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" customHeight="1">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1417</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1440</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>16</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1463</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" customHeight="1">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>16</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1486</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>16</v>
+      </c>
+      <c r="C73" s="1">
+        <v>1510</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" customHeight="1">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1533</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>16</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1556</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
+      <c r="C76" s="1">
+        <v>1579</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" customHeight="1">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>17</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1602</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>17</v>
+      </c>
+      <c r="C78" s="1">
+        <v>1625</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C39">
-        <v>555</v>
-      </c>
-      <c r="D39">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>746</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>770</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>793</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>816</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>839</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>862</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-      <c r="C46">
-        <v>885</v>
-      </c>
-      <c r="D46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>908</v>
-      </c>
-      <c r="D47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>931</v>
-      </c>
-      <c r="D48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>955</v>
-      </c>
-      <c r="D49">
+    </row>
+    <row r="79" ht="16.5" customHeight="1">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>17</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1648</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>978</v>
-      </c>
-      <c r="D50">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>1001</v>
-      </c>
-      <c r="D51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>1024</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>1047</v>
-      </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>1070</v>
-      </c>
-      <c r="D54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>1093</v>
-      </c>
-      <c r="D55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>1116</v>
-      </c>
-      <c r="D56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>12</v>
-      </c>
-      <c r="C57">
-        <v>1140</v>
-      </c>
-      <c r="D57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>13</v>
-      </c>
-      <c r="C58">
-        <v>1163</v>
-      </c>
-      <c r="D58">
+      <c r="C80" s="1">
+        <v>1671</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>13</v>
-      </c>
-      <c r="C59">
-        <v>1186</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>13</v>
-      </c>
-      <c r="C60">
-        <v>1209</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>1232</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" ht="16.5" customHeight="1">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>13</v>
-      </c>
-      <c r="C62">
-        <v>1255</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>14</v>
-      </c>
-      <c r="C63">
-        <v>1278</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>14</v>
-      </c>
-      <c r="C64">
-        <v>1301</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>14</v>
-      </c>
-      <c r="C65">
-        <v>1325</v>
-      </c>
-      <c r="D65">
+      <c r="C81" s="1">
+        <v>1695</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>18</v>
+      </c>
+      <c r="C82" s="1">
+        <v>1718</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>18</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1741</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>1348</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>15</v>
-      </c>
-      <c r="C67">
-        <v>1371</v>
-      </c>
-      <c r="D67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
-      </c>
-      <c r="C68">
-        <v>1394</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>1417</v>
-      </c>
-      <c r="D69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>15</v>
-      </c>
-      <c r="C70">
-        <v>1440</v>
-      </c>
-      <c r="D70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>16</v>
-      </c>
-      <c r="C71">
-        <v>1463</v>
-      </c>
-      <c r="D71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>16</v>
-      </c>
-      <c r="C72">
-        <v>1486</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>16</v>
-      </c>
-      <c r="C73">
-        <v>1510</v>
-      </c>
-      <c r="D73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
-      </c>
-      <c r="C74">
-        <v>1533</v>
-      </c>
-      <c r="D74">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <v>1556</v>
-      </c>
-      <c r="D75">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>17</v>
-      </c>
-      <c r="C76">
-        <v>1579</v>
-      </c>
-      <c r="D76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>17</v>
-      </c>
-      <c r="C77">
-        <v>1602</v>
-      </c>
-      <c r="D77">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>17</v>
-      </c>
-      <c r="C78">
-        <v>1625</v>
-      </c>
-      <c r="D78">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>17</v>
-      </c>
-      <c r="C79">
-        <v>1648</v>
-      </c>
-      <c r="D79">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>1671</v>
-      </c>
-      <c r="D80">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>18</v>
-      </c>
-      <c r="C81">
-        <v>1695</v>
-      </c>
-      <c r="D81">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>18</v>
-      </c>
-      <c r="C82">
-        <v>1718</v>
-      </c>
-      <c r="D82">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>18</v>
-      </c>
-      <c r="C83">
-        <v>1741</v>
-      </c>
-      <c r="D83">
-        <v>27</v>
       </c>
     </row>
     <row r="84" ht="16.5" customHeight="1">
@@ -2304,8 +2301,8 @@
       <c r="C84" s="1">
         <v>1764</v>
       </c>
-      <c r="D84" s="1">
-        <v>28</v>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2320,7 +2317,7 @@
   <sheetPr enableFormatConditionsCalculation="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="true"/>
   </sheetViews>
@@ -2336,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
@@ -2355,8 +2352,8 @@
       <c r="C2" s="1">
         <v>-15</v>
       </c>
-      <c r="D2" s="1">
-        <v>2</v>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" ht="16.5" customHeight="1">
@@ -2369,8 +2366,8 @@
       <c r="C3" s="1">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
-        <v>5</v>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="16.5" customHeight="1">
@@ -2383,8 +2380,8 @@
       <c r="C4" s="1">
         <v>-40</v>
       </c>
-      <c r="D4" s="1">
-        <v>8</v>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" ht="16.5" customHeight="1">
@@ -2397,8 +2394,8 @@
       <c r="C5" s="1">
         <v>60</v>
       </c>
-      <c r="D5" s="1">
-        <v>21</v>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1">
@@ -2411,8 +2408,8 @@
       <c r="C6" s="1">
         <v>80</v>
       </c>
-      <c r="D6" s="1">
-        <v>28</v>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
@@ -2425,8 +2422,8 @@
       <c r="C7" s="1">
         <v>-9</v>
       </c>
-      <c r="D7" s="1">
-        <v>5</v>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" ht="16.5" customHeight="1">
@@ -2439,8 +2436,8 @@
       <c r="C8" s="1">
         <v>114</v>
       </c>
-      <c r="D8" s="1">
-        <v>8</v>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
@@ -2453,8 +2450,8 @@
       <c r="C9" s="1">
         <v>-50</v>
       </c>
-      <c r="D9" s="1">
-        <v>19</v>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="16.5" customHeight="1">
@@ -2467,8 +2464,8 @@
       <c r="C10" s="1">
         <v>50</v>
       </c>
-      <c r="D10" s="1">
-        <v>24</v>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1">
@@ -2481,8 +2478,8 @@
       <c r="C11" s="1">
         <v>50</v>
       </c>
-      <c r="D11" s="1">
-        <v>25</v>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="16.5" customHeight="1">
@@ -2495,8 +2492,8 @@
       <c r="C12" s="1">
         <v>15</v>
       </c>
-      <c r="D12" s="1">
-        <v>29</v>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1">
@@ -2509,8 +2506,8 @@
       <c r="C13" s="1">
         <v>-80</v>
       </c>
-      <c r="D13" s="1">
-        <v>1</v>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" ht="16.5" customHeight="1">
@@ -2523,8 +2520,8 @@
       <c r="C14" s="1">
         <v>255</v>
       </c>
-      <c r="D14" s="1">
-        <v>2</v>
+      <c r="D14" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="15" ht="16.5" customHeight="1">
@@ -2537,8 +2534,8 @@
       <c r="C15" s="1">
         <v>40</v>
       </c>
-      <c r="D15" s="1">
-        <v>3</v>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" ht="16.5" customHeight="1">
@@ -2551,8 +2548,8 @@
       <c r="C16" s="1">
         <v>32</v>
       </c>
-      <c r="D16" s="1">
-        <v>4</v>
+      <c r="D16" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="17" ht="16.5" customHeight="1">
@@ -2565,8 +2562,8 @@
       <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D17" s="1">
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="18" ht="16.5" customHeight="1">
@@ -2579,8 +2576,8 @@
       <c r="C18" s="1">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
-        <v>8</v>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" ht="16.5" customHeight="1">
@@ -2593,8 +2590,8 @@
       <c r="C19" s="1">
         <v>6</v>
       </c>
-      <c r="D19" s="1">
-        <v>9</v>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" ht="16.5" customHeight="1">
@@ -2607,8 +2604,8 @@
       <c r="C20" s="1">
         <v>125</v>
       </c>
-      <c r="D20" s="1">
-        <v>15</v>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="16.5" customHeight="1">
@@ -2621,8 +2618,8 @@
       <c r="C21" s="1">
         <v>-15</v>
       </c>
-      <c r="D21" s="1">
-        <v>18</v>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="16.5" customHeight="1">
@@ -2635,8 +2632,8 @@
       <c r="C22" s="1">
         <v>443</v>
       </c>
-      <c r="D22" s="1">
-        <v>19</v>
+      <c r="D22" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="16.5" customHeight="1">
@@ -2649,8 +2646,8 @@
       <c r="C23" s="1">
         <v>12</v>
       </c>
-      <c r="D23" s="1">
-        <v>24</v>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="24" ht="16.5" customHeight="1">
@@ -2663,8 +2660,8 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="1">
-        <v>26</v>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" ht="16.5" customHeight="1">
@@ -2677,8 +2674,8 @@
       <c r="C25" s="1">
         <v>80</v>
       </c>
-      <c r="D25" s="1">
-        <v>28</v>
+      <c r="D25" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" ht="16.5" customHeight="1">
@@ -2691,8 +2688,8 @@
       <c r="C26" s="1">
         <v>90</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="27" ht="16.5" customHeight="1">
@@ -2705,8 +2702,8 @@
       <c r="C27" s="1">
         <v>888</v>
       </c>
-      <c r="D27" s="1">
-        <v>5</v>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" ht="16.5" customHeight="1">
@@ -2719,8 +2716,8 @@
       <c r="C28" s="1">
         <v>-1222</v>
       </c>
-      <c r="D28" s="1">
-        <v>9</v>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" ht="16.5" customHeight="1">
@@ -2733,8 +2730,8 @@
       <c r="C29" s="1">
         <v>155</v>
       </c>
-      <c r="D29" s="1">
-        <v>13</v>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" ht="16.5" customHeight="1">
@@ -2747,8 +2744,8 @@
       <c r="C30" s="1">
         <v>110</v>
       </c>
-      <c r="D30" s="1">
-        <v>17</v>
+      <c r="D30" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="31" ht="16.5" customHeight="1">
@@ -2761,8 +2758,8 @@
       <c r="C31" s="1">
         <v>-15</v>
       </c>
-      <c r="D31" s="1">
-        <v>21</v>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
@@ -2775,8 +2772,8 @@
       <c r="C32" s="1">
         <v>678</v>
       </c>
-      <c r="D32" s="1">
-        <v>25</v>
+      <c r="D32" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
@@ -2789,8 +2786,8 @@
       <c r="C33" s="1">
         <v>1515</v>
       </c>
-      <c r="D33" s="1">
-        <v>26</v>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="34" ht="16.5" customHeight="1">
@@ -2803,8 +2800,8 @@
       <c r="C34" s="1">
         <v>200</v>
       </c>
-      <c r="D34" s="1">
-        <v>27</v>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1">
@@ -2817,8 +2814,8 @@
       <c r="C35" s="1">
         <v>51</v>
       </c>
-      <c r="D35" s="1">
-        <v>29</v>
+      <c r="D35" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
@@ -2831,8 +2828,8 @@
       <c r="C36" s="1">
         <v>772</v>
       </c>
-      <c r="D36" s="1">
-        <v>1</v>
+      <c r="D36" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
@@ -2845,8 +2842,8 @@
       <c r="C37" s="1">
         <v>-555</v>
       </c>
-      <c r="D37" s="1">
-        <v>9</v>
+      <c r="D37" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
@@ -2859,8 +2856,8 @@
       <c r="C38" s="1">
         <v>1515</v>
       </c>
-      <c r="D38" s="1">
-        <v>17</v>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" ht="10.5" customHeight="1">
@@ -2873,643 +2870,13 @@
       <c r="C39" s="1">
         <v>-10000</v>
       </c>
-      <c r="D39" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>9</v>
-      </c>
-      <c r="C40">
-        <v>-676</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
-      </c>
-      <c r="C41">
-        <v>-704</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>9</v>
-      </c>
-      <c r="C42">
-        <v>-733</v>
-      </c>
-      <c r="D42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>-761</v>
-      </c>
-      <c r="D43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>9</v>
-      </c>
-      <c r="C44">
-        <v>-790</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>-818</v>
-      </c>
-      <c r="D45">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
-      </c>
-      <c r="C46">
-        <v>-847</v>
-      </c>
-      <c r="D46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>-875</v>
-      </c>
-      <c r="D47">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>-903</v>
-      </c>
-      <c r="D48">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>-932</v>
-      </c>
-      <c r="D49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>-960</v>
-      </c>
-      <c r="D50">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>11</v>
-      </c>
-      <c r="C51">
-        <v>-989</v>
-      </c>
-      <c r="D51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>-1017</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>11</v>
-      </c>
-      <c r="C53">
-        <v>-1046</v>
-      </c>
-      <c r="D53">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>12</v>
-      </c>
-      <c r="C54">
-        <v>-1074</v>
-      </c>
-      <c r="D54">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>12</v>
-      </c>
-      <c r="C55">
-        <v>-1102</v>
-      </c>
-      <c r="D55">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>12</v>
-      </c>
-      <c r="C56">
-        <v>-1131</v>
-      </c>
-      <c r="D56">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>12</v>
-      </c>
-      <c r="C57">
-        <v>-1159</v>
-      </c>
-      <c r="D57">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>13</v>
-      </c>
-      <c r="C58">
-        <v>-1188</v>
-      </c>
-      <c r="D58">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>13</v>
-      </c>
-      <c r="C59">
-        <v>-1216</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>13</v>
-      </c>
-      <c r="C60">
-        <v>-1245</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>-1273</v>
-      </c>
-      <c r="D61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>13</v>
-      </c>
-      <c r="C62">
-        <v>-1301</v>
-      </c>
-      <c r="D62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>14</v>
-      </c>
-      <c r="C63">
-        <v>-1330</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>14</v>
-      </c>
-      <c r="C64">
-        <v>-1358</v>
-      </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>14</v>
-      </c>
-      <c r="C65">
-        <v>-1387</v>
-      </c>
-      <c r="D65">
+      <c r="D39" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>-1415</v>
-      </c>
-      <c r="D66">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>15</v>
-      </c>
-      <c r="C67">
-        <v>-1443</v>
-      </c>
-      <c r="D67">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>15</v>
-      </c>
-      <c r="C68">
-        <v>-1472</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" ht="16.5" customHeight="1">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>15</v>
-      </c>
-      <c r="C69">
-        <v>-1500</v>
-      </c>
-      <c r="D69">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>15</v>
-      </c>
-      <c r="C70">
-        <v>-1529</v>
-      </c>
-      <c r="D70">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>16</v>
-      </c>
-      <c r="C71">
-        <v>-1557</v>
-      </c>
-      <c r="D71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" ht="16.5" customHeight="1">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>16</v>
-      </c>
-      <c r="C72">
-        <v>-1586</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>16</v>
-      </c>
-      <c r="C73">
-        <v>-1614</v>
-      </c>
-      <c r="D73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" ht="16.5" customHeight="1">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>16</v>
-      </c>
-      <c r="C74">
-        <v>-1642</v>
-      </c>
-      <c r="D74">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>16</v>
-      </c>
-      <c r="C75">
-        <v>-1671</v>
-      </c>
-      <c r="D75">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>17</v>
-      </c>
-      <c r="C76">
-        <v>-1699</v>
-      </c>
-      <c r="D76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" ht="16.5" customHeight="1">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>17</v>
-      </c>
-      <c r="C77">
-        <v>-1728</v>
-      </c>
-      <c r="D77">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>17</v>
-      </c>
-      <c r="C78">
-        <v>-1756</v>
-      </c>
-      <c r="D78">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="79" ht="16.5" customHeight="1">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>17</v>
-      </c>
-      <c r="C79">
-        <v>-1785</v>
-      </c>
-      <c r="D79">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>18</v>
-      </c>
-      <c r="C80">
-        <v>-1813</v>
-      </c>
-      <c r="D80">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>18</v>
-      </c>
-      <c r="C81">
-        <v>-1841</v>
-      </c>
-      <c r="D81">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>18</v>
-      </c>
-      <c r="C82">
-        <v>-1870</v>
-      </c>
-      <c r="D82">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>18</v>
-      </c>
-      <c r="C83">
-        <v>-1898</v>
-      </c>
-      <c r="D83">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>18</v>
-      </c>
-      <c r="C84">
-        <v>-1927</v>
-      </c>
-      <c r="D84">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D84"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D39"/>
   </ignoredErrors>
 </worksheet>
 </file>
